--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H2">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I2">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J2">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.76808008122719</v>
+        <v>2.172908</v>
       </c>
       <c r="N2">
-        <v>0.76808008122719</v>
+        <v>6.518724</v>
       </c>
       <c r="O2">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="P2">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="Q2">
-        <v>6.24269980629513</v>
+        <v>54.04346828455201</v>
       </c>
       <c r="R2">
-        <v>6.24269980629513</v>
+        <v>486.391214560968</v>
       </c>
       <c r="S2">
-        <v>0.1375884035428635</v>
+        <v>0.3776156392168353</v>
       </c>
       <c r="T2">
-        <v>0.1375884035428635</v>
+        <v>0.3776156392168353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H3">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I3">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J3">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.541116611829642</v>
+        <v>0.6730553333333334</v>
       </c>
       <c r="N3">
-        <v>0.541116611829642</v>
+        <v>2.019166</v>
       </c>
       <c r="O3">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="P3">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="Q3">
-        <v>4.398016105891956</v>
+        <v>16.73989168466801</v>
       </c>
       <c r="R3">
-        <v>4.398016105891956</v>
+        <v>150.659025162012</v>
       </c>
       <c r="S3">
-        <v>0.09693178168767262</v>
+        <v>0.1169659368574127</v>
       </c>
       <c r="T3">
-        <v>0.09693178168767262</v>
+        <v>0.1169659368574127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.12766788108987</v>
+        <v>24.871494</v>
       </c>
       <c r="H4">
-        <v>8.12766788108987</v>
+        <v>74.61448200000001</v>
       </c>
       <c r="I4">
-        <v>0.2900416094775399</v>
+        <v>0.5523409677800469</v>
       </c>
       <c r="J4">
-        <v>0.2900416094775399</v>
+        <v>0.552340967780047</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.309945452868072</v>
+        <v>0.332364</v>
       </c>
       <c r="N4">
-        <v>0.309945452868072</v>
+        <v>0.9970920000000001</v>
       </c>
       <c r="O4">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="P4">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="Q4">
-        <v>2.519133702165683</v>
+        <v>8.266389231816001</v>
       </c>
       <c r="R4">
-        <v>2.519133702165683</v>
+        <v>74.39750308634402</v>
       </c>
       <c r="S4">
-        <v>0.05552142424700371</v>
+        <v>0.05775939170579898</v>
       </c>
       <c r="T4">
-        <v>0.05552142424700371</v>
+        <v>0.05775939170579899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H5">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I5">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J5">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.76808008122719</v>
+        <v>2.172908</v>
       </c>
       <c r="N5">
-        <v>0.76808008122719</v>
+        <v>6.518724</v>
       </c>
       <c r="O5">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="P5">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="Q5">
-        <v>5.116244442478267</v>
+        <v>14.618992569076</v>
       </c>
       <c r="R5">
-        <v>5.116244442478267</v>
+        <v>131.570933121684</v>
       </c>
       <c r="S5">
-        <v>0.1127614536687772</v>
+        <v>0.1021466682081128</v>
       </c>
       <c r="T5">
-        <v>0.1127614536687772</v>
+        <v>0.1021466682081128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H6">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I6">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J6">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.541116611829642</v>
+        <v>0.6730553333333334</v>
       </c>
       <c r="N6">
-        <v>0.541116611829642</v>
+        <v>2.019166</v>
       </c>
       <c r="O6">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="P6">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="Q6">
-        <v>3.604422150334591</v>
+        <v>4.528213305200667</v>
       </c>
       <c r="R6">
-        <v>3.604422150334591</v>
+        <v>40.753919746806</v>
       </c>
       <c r="S6">
-        <v>0.07944105991753438</v>
+        <v>0.03163979322626671</v>
       </c>
       <c r="T6">
-        <v>0.07944105991753438</v>
+        <v>0.03163979322626671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.66108205059016</v>
+        <v>6.727847</v>
       </c>
       <c r="H7">
-        <v>6.66108205059016</v>
+        <v>20.183541</v>
       </c>
       <c r="I7">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="J7">
-        <v>0.2377054509461641</v>
+        <v>0.1494106274056591</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.309945452868072</v>
+        <v>0.332364</v>
       </c>
       <c r="N7">
-        <v>0.309945452868072</v>
+        <v>0.9970920000000001</v>
       </c>
       <c r="O7">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="P7">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="Q7">
-        <v>2.064572092761553</v>
+        <v>2.236094140308</v>
       </c>
       <c r="R7">
-        <v>2.064572092761553</v>
+        <v>20.124847262772</v>
       </c>
       <c r="S7">
-        <v>0.04550293735985253</v>
+        <v>0.01562416597127959</v>
       </c>
       <c r="T7">
-        <v>0.04550293735985253</v>
+        <v>0.01562416597127959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H8">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I8">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J8">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.76808008122719</v>
+        <v>2.172908</v>
       </c>
       <c r="N8">
-        <v>0.76808008122719</v>
+        <v>6.518724</v>
       </c>
       <c r="O8">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="P8">
-        <v>0.474374707100493</v>
+        <v>0.6836640069168457</v>
       </c>
       <c r="Q8">
-        <v>10.16451860036843</v>
+        <v>29.181934976292</v>
       </c>
       <c r="R8">
-        <v>10.16451860036843</v>
+        <v>262.637414786628</v>
       </c>
       <c r="S8">
-        <v>0.2240248498888523</v>
+        <v>0.2039016994918977</v>
       </c>
       <c r="T8">
-        <v>0.2240248498888523</v>
+        <v>0.2039016994918977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H9">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I9">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J9">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541116611829642</v>
+        <v>0.6730553333333334</v>
       </c>
       <c r="N9">
-        <v>0.541116611829642</v>
+        <v>2.019166</v>
       </c>
       <c r="O9">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="P9">
-        <v>0.3341995717865398</v>
+        <v>0.2117640075251322</v>
       </c>
       <c r="Q9">
-        <v>7.160958863980539</v>
+        <v>9.039065148078002</v>
       </c>
       <c r="R9">
-        <v>7.160958863980539</v>
+        <v>81.35158633270201</v>
       </c>
       <c r="S9">
-        <v>0.1578267301813328</v>
+        <v>0.06315827744145282</v>
       </c>
       <c r="T9">
-        <v>0.1578267301813328</v>
+        <v>0.06315827744145283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2336703539144</v>
+        <v>13.429899</v>
       </c>
       <c r="H10">
-        <v>13.2336703539144</v>
+        <v>40.289697</v>
       </c>
       <c r="I10">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="J10">
-        <v>0.4722529395762961</v>
+        <v>0.298248404814294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.309945452868072</v>
+        <v>0.332364</v>
       </c>
       <c r="N10">
-        <v>0.309945452868072</v>
+        <v>0.9970920000000001</v>
       </c>
       <c r="O10">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="P10">
-        <v>0.1914257211129673</v>
+        <v>0.104571985558022</v>
       </c>
       <c r="Q10">
-        <v>4.101715950950777</v>
+        <v>4.463614951236001</v>
       </c>
       <c r="R10">
-        <v>4.101715950950777</v>
+        <v>40.17253456112401</v>
       </c>
       <c r="S10">
-        <v>0.09040135950611104</v>
+        <v>0.03118842788094346</v>
       </c>
       <c r="T10">
-        <v>0.09040135950611104</v>
+        <v>0.03118842788094346</v>
       </c>
     </row>
   </sheetData>
